--- a/template_excel/lampiran_1.xlsx
+++ b/template_excel/lampiran_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Kecamatan</t>
   </si>
@@ -56,16 +56,13 @@
   </si>
   <si>
     <t>Stok Akhir</t>
-  </si>
-  <si>
-    <t>REKAPITULASI CPM KELOMPOK TANI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +93,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -245,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,6 +267,202 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>110437</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>773045</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="avatar5.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="538372" y="0"/>
+          <a:ext cx="662608" cy="773043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>842065</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>96629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358913</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>151846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270000" y="96629"/>
+          <a:ext cx="2277717" cy="717826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Badan Ketahanan Pangan</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Pemerintah Provinsi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Banten</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>96634</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>496946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>911090</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114704</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3285438" y="496946"/>
+          <a:ext cx="5797826" cy="708301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>REKAPITULASI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> CPM KELOMPOK TANI</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -529,13 +731,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
@@ -544,16 +746,14 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+    <row r="1" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="18">
       <c r="A2" s="11"/>
@@ -682,6 +882,7 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>